--- a/ocms/src/test/resources/TestData/FaxTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxTemplateData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="3315" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:J20"/>
 </workbook>
 </file>
 
@@ -171,12 +171,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -637,7 +638,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,6 +655,7 @@
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -740,7 +742,7 @@
       <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -784,7 +786,7 @@
       <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -797,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/FaxTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxTemplateData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18780" windowHeight="3810" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Invalid" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Template Name</t>
   </si>
@@ -47,55 +47,52 @@
   </si>
   <si>
     <t>vasvv</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>gooogle</t>
+  </si>
+  <si>
+    <t>mpl</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Template Type</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>UpdatedContent</t>
   </si>
   <si>
     <t>SELECT [TemplateName] as 'Template Name'
       ,[FileName] as 'FileName'
       ,[LastChangedBy] as 'Last Changed By'
-  ,Substring(LastChangedOn,11,18) as ' =, Last Changed On'
+  ,Substring(LastChangedOn,11,18) as 'Last Changed On'
   FROM [Product_OCM].[dbo].[FaxTemplate];</t>
   </si>
   <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>gooogle</t>
-  </si>
-  <si>
-    <t>mpl</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>Template Type</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>UpdatedContent</t>
-  </si>
-  <si>
-    <t>Fax Made Simple</t>
-  </si>
-  <si>
-    <t>Deer</t>
-  </si>
-  <si>
-    <t>Deer Custom Template.html</t>
-  </si>
-  <si>
-    <t>Reserved Fax</t>
-  </si>
-  <si>
-    <t>Fox</t>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Colors Group</t>
+  </si>
+  <si>
+    <t>Mode Custom Template.html</t>
+  </si>
+  <si>
+    <t>Sachin Score</t>
   </si>
 </sst>
 </file>
@@ -467,27 +464,27 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -499,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -527,15 +524,15 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -567,35 +564,35 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
@@ -604,6 +601,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -611,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -630,35 +628,35 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
@@ -688,9 +686,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="72.599999999999994" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/FaxTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxTemplateData.xlsx
@@ -5,25 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18780" windowHeight="3810" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Invalid" sheetId="5" r:id="rId1"/>
     <sheet name="Create" sheetId="6" r:id="rId2"/>
     <sheet name="Edit" sheetId="7" r:id="rId3"/>
     <sheet name="Delete" sheetId="8" r:id="rId4"/>
-    <sheet name="Queries" sheetId="4" r:id="rId5"/>
+    <sheet name="Create1" sheetId="9" r:id="rId5"/>
+    <sheet name="Edit1" sheetId="10" r:id="rId6"/>
+    <sheet name="Delete1" sheetId="11" r:id="rId7"/>
+    <sheet name="Search" sheetId="12" r:id="rId8"/>
+    <sheet name="Queries" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
   <si>
     <t>Template Name</t>
   </si>
@@ -55,12 +59,6 @@
     <t>gooogle</t>
   </si>
   <si>
-    <t>mpl</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -76,23 +74,80 @@
     <t>UpdatedContent</t>
   </si>
   <si>
-    <t>SELECT [TemplateName] as 'Template Name'
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT [TemplateName] as 'Template Name'
       ,[FileName] as 'FileName'
       ,[LastChangedBy] as 'Last Changed By'
   ,Substring(LastChangedOn,11,18) as 'Last Changed On'
   FROM [Product_OCM].[dbo].[FaxTemplate];</t>
   </si>
   <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Colors Group</t>
-  </si>
-  <si>
-    <t>Mode Custom Template.html</t>
-  </si>
-  <si>
-    <t>Sachin Score</t>
+    <t>JBL</t>
+  </si>
+  <si>
+    <t>JBL Custom Template.html</t>
+  </si>
+  <si>
+    <t>Sound System</t>
+  </si>
+  <si>
+    <t>Sony Sound</t>
+  </si>
+  <si>
+    <t>UOB.pdf</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Made in India</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ManKind.pdf</t>
+  </si>
+  <si>
+    <t>BigBang Theory</t>
+  </si>
+  <si>
+    <t>Nature World</t>
+  </si>
+  <si>
+    <t>World Trade Center</t>
+  </si>
+  <si>
+    <t>KGF</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Rubin</t>
+  </si>
+  <si>
+    <t>Renaldo</t>
+  </si>
+  <si>
+    <t>Level Auto ACK.pdf</t>
+  </si>
+  <si>
+    <t>Rubin Cover Page.html</t>
+  </si>
+  <si>
+    <t>Renaldo Custom Template.html</t>
   </si>
 </sst>
 </file>
@@ -441,15 +496,15 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,34 +512,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -497,43 +552,43 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -546,57 +601,198 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -605,62 +801,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +904,153 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -676,17 +1058,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="1" max="1" width="54.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>

--- a/ocms/src/test/resources/TestData/FaxTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxTemplateData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17052" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Invalid" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="43">
   <si>
     <t>Template Name</t>
   </si>
@@ -87,18 +87,6 @@
   FROM [Product_OCM].[dbo].[FaxTemplate];</t>
   </si>
   <si>
-    <t>JBL</t>
-  </si>
-  <si>
-    <t>JBL Custom Template.html</t>
-  </si>
-  <si>
-    <t>Sound System</t>
-  </si>
-  <si>
-    <t>Sony Sound</t>
-  </si>
-  <si>
     <t>UOB.pdf</t>
   </si>
   <si>
@@ -148,6 +136,30 @@
   </si>
   <si>
     <t>Renaldo Custom Template.html</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>London.png</t>
+  </si>
+  <si>
+    <t>Mangata</t>
+  </si>
+  <si>
+    <t>Oblo</t>
+  </si>
+  <si>
+    <t>Erso</t>
+  </si>
+  <si>
+    <t>Mangata Auto ACK.pdf</t>
+  </si>
+  <si>
+    <t>Oblo Cover Page.html</t>
+  </si>
+  <si>
+    <t>Erso Custom Template.html</t>
   </si>
 </sst>
 </file>
@@ -496,7 +508,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,10 +561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,9 +573,10 @@
     <col min="2" max="2" width="16.21875" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" customWidth="1"/>
     <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,19 +589,56 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -598,10 +648,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,21 +686,61 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -661,10 +751,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,21 +789,61 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -727,7 +857,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,44 +885,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +936,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,19 +971,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -861,19 +991,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -881,19 +1011,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -908,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,19 +1074,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -964,19 +1094,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -984,19 +1114,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1027,12 +1157,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -1042,7 +1172,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
